--- a/pred_ohlcv/54_21/2020-01-13 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 PLY ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>7728396.819656054</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>7734766.819656054</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>7402687.469056053</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>7417076.611256053</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7434555.040056053</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>7527185.315956052</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6915773.023756053</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>11921813.2429206</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>12287536.6925206</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>12287536.6925206</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>13348080.9138206</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>13928921.7566206</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>13928921.7566206</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>13728921.7566206</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>13716084.8997206</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>13718173.0184206</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>13719278.0184206</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>13094106.6261206</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>13018091.6350206</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>12873382.3203206</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>12937270.8639206</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>12887270.8639206</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>13026721.5495206</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>13265672.9238206</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>13085049.3426206</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>13917168.0232206</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>14075168.0232206</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>14105168.0232206</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>14367309.4837206</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>14367309.4837206</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>14246746.7017206</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>14299322.4583206</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>13988354.5192206</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>13988354.5192206</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>25164936.93953171</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>25105985.11233171</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>25482718.46493172</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>25323457.86383171</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>24067830.13848566</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>23805119.47388566</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>22697548.5347396</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>22249874.21858566</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>22288224.54628566</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>22303110.21788565</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>22196168.16468566</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>22400258.86158565</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>22150258.86158565</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>21710140.63568565</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>21753745.62960771</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>21692368.40130771</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>21782423.97820771</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>21782529.97820771</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>21781377.48890771</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>22058668.86080771</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>21851401.2439077</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>21907904.2439077</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>22999007.51101052</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>22786556.29569698</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>20995747.94529698</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>20995747.94529698</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>20995747.94529698</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>21174121.74769698</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>21184220.74769698</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>21184121.74769698</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>21018973.17049698</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>21266773.31609698</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>21266773.31609698</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>21212073.08209698</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>21212173.08209698</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>21054932.70779698</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>21006101.04399698</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>20946938.25819698</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>4555846.202691987</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>4830058.347191988</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>5885592.62180746</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>7336445.826170347</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>7024255.321970346</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>6525630.132870346</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>6145341.677270346</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>7037895.234970346</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>6993895.234970346</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>6998654.847270346</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>6973117.117970346</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>6972725.079170346</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-9335653.03584775</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-10444669.49634775</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-10061233.78784775</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-11208615.45404775</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-11204423.74924775</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-11204423.74924775</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-11206666.85524775</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-11057667.26284775</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-10979774.84944775</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-10978659.84944775</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-10978659.84944775</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-11004138.22844775</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-11171856.60544775</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-11130366.60544775</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-11130366.60544775</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-11130366.60544775</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-11362377.46114775</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 PLY ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>7728396.819656054</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>7734766.819656054</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>7402687.469056053</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>7417076.611256053</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7434555.040056053</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>7527185.315956052</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6915773.023756053</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>11921813.2429206</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>12287536.6925206</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>12287536.6925206</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>13348080.9138206</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>13928921.7566206</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>13928921.7566206</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>13728921.7566206</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>13716084.8997206</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>13718173.0184206</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>13719278.0184206</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>13094106.6261206</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>13018091.6350206</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>12873382.3203206</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>12937270.8639206</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>12887270.8639206</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>13026721.5495206</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>13265672.9238206</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>13085049.3426206</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>13917168.0232206</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>14075168.0232206</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>14105168.0232206</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>14367309.4837206</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>14367309.4837206</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>14246746.7017206</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>14299322.4583206</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>13988354.5192206</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>13988354.5192206</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>20590609.64617667</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>20702033.39185419</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>21788969.90595419</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>25561779.26925419</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>25164936.93953171</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>25105985.11233171</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>25482718.46493172</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>25323457.86383171</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>25324054.69393171</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>22962677.55333171</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>22962677.55333171</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>23267644.72223172</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>24067830.13848566</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>23805119.47388566</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>22697548.5347396</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>22249874.21858566</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>22288224.54628566</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>22303110.21788565</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>22196168.16468566</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>22400258.86158565</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>22150258.86158565</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>21710140.63568565</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>21753745.62960771</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>21692368.40130771</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>21782423.97820771</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>21782529.97820771</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>21781377.48890771</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>22058668.86080771</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>21851401.2439077</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>22786556.29569698</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>20995747.94529698</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>20995747.94529698</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>20995747.94529698</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>21174121.74769698</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>21184220.74769698</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>21184121.74769698</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>21018973.17049698</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>21266773.31609698</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>21266773.31609698</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>21212073.08209698</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>4555846.202691987</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>4830058.347191988</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>5885592.62180746</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>7336445.826170347</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>7024255.321970346</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>6525630.132870346</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>6145341.677270346</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>7037895.234970346</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>6993895.234970346</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>6998654.847270346</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>6973117.117970346</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>6972725.079170346</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-9356952.666547749</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-9331018.041647749</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-9335653.03584775</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-11206666.85524775</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-11130366.60544775</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-11130307.35724775</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-11362377.46114775</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
